--- a/Banco Central/Estadísticas Monetarias y Financieras/Índices de coyuntura/Índice de stress local 2007 - Diaria.xlsx
+++ b/Banco Central/Estadísticas Monetarias y Financieras/Índices de coyuntura/Índice de stress local 2007 - Diaria.xlsx
@@ -19,18 +19,6 @@
     <t>Serie</t>
   </si>
   <si>
-    <t>26.Dic.2007</t>
-  </si>
-  <si>
-    <t>27.Dic.2007</t>
-  </si>
-  <si>
-    <t>28.Dic.2007</t>
-  </si>
-  <si>
-    <t>31.Dic.2007</t>
-  </si>
-  <si>
     <t>Índice de stress local</t>
   </si>
   <si>
@@ -38,6 +26,18 @@
   </si>
   <si>
     <t>Índice de stress local: tasa soberana</t>
+  </si>
+  <si>
+    <t>26-12-2007</t>
+  </si>
+  <si>
+    <t>27-12-2007</t>
+  </si>
+  <si>
+    <t>28-12-2007</t>
+  </si>
+  <si>
+    <t>31-12-2007</t>
   </si>
 </sst>
 </file>
@@ -395,79 +395,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="B1" s="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0.3018</v>
+      </c>
+      <c r="C2">
+        <v>0.3018</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>0.3021</v>
+        <v>0.2998</v>
       </c>
       <c r="C3">
-        <v>0.3021</v>
+        <v>0.2998</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3001</v>
+        <v>0.2968</v>
       </c>
       <c r="C4">
-        <v>0.3001</v>
+        <v>0.2968</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>0.297</v>
+        <v>0.2915</v>
       </c>
       <c r="C5">
-        <v>0.297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.2917</v>
-      </c>
-      <c r="C6">
-        <v>0.2917</v>
+        <v>0.2915</v>
       </c>
     </row>
   </sheetData>
